--- a/public/documents/smartco_materials_upload_sheet.xlsx
+++ b/public/documents/smartco_materials_upload_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluso\Documents\work\PROJECTS\PERSONAL\BDS\smartco_frontend\public\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>UPLOAD MATERIALS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample 4</t>
+  </si>
+  <si>
+    <t>Sample 5</t>
+  </si>
+  <si>
+    <t>Sample 6</t>
+  </si>
+  <si>
+    <t>Sample 7</t>
+  </si>
+  <si>
+    <t>Sample 8</t>
+  </si>
+  <si>
+    <t>Sample 9</t>
+  </si>
+  <si>
+    <t>Sample 10</t>
+  </si>
+  <si>
+    <t>sample type 1</t>
+  </si>
+  <si>
+    <t>sample type 2</t>
+  </si>
+  <si>
+    <t>sample type 3</t>
+  </si>
+  <si>
+    <t>sample type 4</t>
+  </si>
+  <si>
+    <t>sample type 5</t>
+  </si>
+  <si>
+    <t>sample type 6</t>
+  </si>
+  <si>
+    <t>sample type 7</t>
+  </si>
+  <si>
+    <t>sample type 8</t>
+  </si>
+  <si>
+    <t>sample type 9</t>
+  </si>
+  <si>
+    <t>sample type 10</t>
+  </si>
+  <si>
+    <t>category 1</t>
+  </si>
+  <si>
+    <t>category 2</t>
+  </si>
+  <si>
+    <t>category 3</t>
+  </si>
+  <si>
+    <t>category 4</t>
+  </si>
+  <si>
+    <t>category 5</t>
+  </si>
+  <si>
+    <t>category 6</t>
+  </si>
+  <si>
+    <t>category 7</t>
+  </si>
+  <si>
+    <t>category 8</t>
+  </si>
+  <si>
+    <t>category 9</t>
+  </si>
+  <si>
+    <t>category 10</t>
+  </si>
+  <si>
+    <t>sample unit 1</t>
+  </si>
+  <si>
+    <t>sample unit 2</t>
+  </si>
+  <si>
+    <t>sample unit 3</t>
+  </si>
+  <si>
+    <t>sample unit 4</t>
+  </si>
+  <si>
+    <t>sample unit 5</t>
+  </si>
+  <si>
+    <t>sample unit 6</t>
+  </si>
+  <si>
+    <t>sample unit 7</t>
+  </si>
+  <si>
+    <t>sample unit 8</t>
+  </si>
+  <si>
+    <t>sample unit 9</t>
+  </si>
+  <si>
+    <t>sample unit 10</t>
+  </si>
+  <si>
+    <t>Sample description 1</t>
+  </si>
+  <si>
+    <t>Sample description 2</t>
+  </si>
+  <si>
+    <t>Sample description 3</t>
+  </si>
+  <si>
+    <t>Sample description 4</t>
+  </si>
+  <si>
+    <t>Sample description 5</t>
+  </si>
+  <si>
+    <t>Sample description 6</t>
+  </si>
+  <si>
+    <t>Sample description 7</t>
+  </si>
+  <si>
+    <t>Sample description 8</t>
+  </si>
+  <si>
+    <t>Sample description 9</t>
+  </si>
+  <si>
+    <t>Sample description 10</t>
+  </si>
+  <si>
+    <t>Material_Name</t>
+  </si>
+  <si>
+    <t>Unit_of_measurement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -58,14 +228,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,31 +549,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="86.42578125" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/documents/smartco_materials_upload_sheet.xlsx
+++ b/public/documents/smartco_materials_upload_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oluso\Documents\work\PROJECTS\PERSONAL\BDS\smartco_frontend\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
